--- a/Fase III - Construcción y Evolución/2. Reportes de Problemas/PR03.xlsx
+++ b/Fase III - Construcción y Evolución/2. Reportes de Problemas/PR03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelfi\Downloads\X\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jonathan\6to semestre\Calidad de SW\Proyecto\BrailleTech\Fase III - Construcción y Evolución\2. Reportes de Problemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1849FD-92A4-4AFD-A0A1-51A565D5B3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93C282E-FC02-4875-8F04-5067D753D4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
   <sheets>
     <sheet name="PR03" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Reporte de Problema</t>
   </si>
@@ -56,9 +54,6 @@
     <t>Ubicación del Problema</t>
   </si>
   <si>
-    <t>Aplicación de Trducción :Módulo de descarga señaletica espejo</t>
-  </si>
-  <si>
     <t>Descripción del problema</t>
   </si>
   <si>
@@ -72,6 +67,18 @@
   </si>
   <si>
     <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Aplicación de Trducción: Módulo de descarga señaletica espejo</t>
+  </si>
+  <si>
+    <t>El problema surge porque el módulo de descarga de señalética en espejo está configurado para generar un archivo PDF de una sola página. Esto indica que el sistema no está manejando correctamente el contenido que excede la primera página.</t>
+  </si>
+  <si>
+    <t>Se debe modificar el generador de PDFs para que divida el contenido traducido en múltiples páginas. Esto implicará ajustar la configuración de salida del PDF para manejar textos de mayor longitud.</t>
+  </si>
+  <si>
+    <t>Probar el nuevo generador de PDFs con textos de distintas longitudes para confirmar que la solución funciona.</t>
   </si>
 </sst>
 </file>
@@ -351,15 +358,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -404,6 +402,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,20 +748,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F84A08-0160-4953-9528-DB07A5F993CD}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" customWidth="1"/>
+    <col min="3" max="3" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" customWidth="1"/>
+    <col min="5" max="7" width="20.09765625" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="1" spans="2:8" ht="14.4" thickBot="1"/>
     <row r="2" spans="2:8">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -764,7 +771,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75">
+    <row r="3" spans="2:8" ht="17.399999999999999">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -815,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -833,46 +840,46 @@
     <row r="13" spans="2:8">
       <c r="B13" s="4"/>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="4"/>
-      <c r="C14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="C14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="4"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="4"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="4"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8">
@@ -882,26 +889,28 @@
     <row r="19" spans="2:8">
       <c r="B19" s="4"/>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="4"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8">
@@ -916,26 +925,28 @@
     <row r="23" spans="2:8">
       <c r="B23" s="4"/>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="4"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
+      <c r="C24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="4"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8">
@@ -945,7 +956,7 @@
     <row r="27" spans="2:8">
       <c r="B27" s="4"/>
       <c r="C27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -955,14 +966,16 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="4"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
+      <c r="C28" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1">
+    <row r="29" spans="2:8" ht="14.4" thickBot="1">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
